--- a/data/trans_orig/IP07A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E311C00E-8B4E-4870-9E58-A347D0536DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4A981D-F94D-4393-AF01-071A20E1103B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{31EE54B6-1EDF-4BE0-84AA-3779FBCEEF1B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{76255716-61B4-4066-9E37-8CEF7CC57E02}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,165 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>4,73%</t>
   </si>
   <si>
@@ -118,33 +256,6 @@
     <t>6,31%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>41,26%</t>
   </si>
   <si>
@@ -172,27 +283,6 @@
     <t>44,19%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>53,19%</t>
   </si>
   <si>
@@ -220,94 +310,43 @@
     <t>56,78%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>4,77%</t>
@@ -337,30 +376,6 @@
     <t>5,85%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
     <t>40,41%</t>
   </si>
   <si>
@@ -388,21 +403,6 @@
     <t>43,95%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>54,16%</t>
   </si>
   <si>
@@ -433,6 +433,132 @@
     <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
   </si>
   <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
     <t>2,97%</t>
   </si>
   <si>
@@ -457,30 +583,6 @@
     <t>4,46%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>38,29%</t>
   </si>
   <si>
@@ -508,18 +610,6 @@
     <t>41,54%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>57,31%</t>
   </si>
   <si>
@@ -547,94 +637,37 @@
     <t>61,52%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>3,67%</t>
@@ -661,27 +694,6 @@
     <t>4,27%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
     <t>38,27%</t>
   </si>
   <si>
@@ -706,18 +718,6 @@
     <t>41,22%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>56,68%</t>
   </si>
   <si>
@@ -748,6 +748,108 @@
     <t>Menores según frecuencia de sentirse alegre en 2015 (Tasa respuesta: 47,32%)</t>
   </si>
   <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
     <t>3,73%</t>
   </si>
   <si>
@@ -775,9 +877,6 @@
     <t>5,81%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
     <t>39,47%</t>
   </si>
   <si>
@@ -802,21 +901,6 @@
     <t>37,17%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
     <t>56,29%</t>
   </si>
   <si>
@@ -841,88 +925,16 @@
     <t>50,71%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>1,99%</t>
@@ -946,9 +958,6 @@
     <t>5,24%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
     <t>40,49%</t>
   </si>
   <si>
@@ -974,15 +983,6 @@
   </si>
   <si>
     <t>44,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
   </si>
   <si>
     <t>55,67%</t>
@@ -1398,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F892E98C-8FE3-4FDE-87EC-AF925A378EBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293A9AAC-42CE-4D3D-B49D-26F99F594DD8}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1788,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>13219</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1803,34 +1803,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>12417</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>39</v>
-      </c>
-      <c r="N10" s="7">
-        <v>25636</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,49 +1839,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>2293</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>2977</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,49 +1890,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>115341</v>
+        <v>3266</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>106922</v>
+        <v>696</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>330</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>222263</v>
+        <v>3963</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,49 +1941,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>24314</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>2063</v>
+        <v>26332</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>2063</v>
+        <v>50645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,49 +1992,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>148667</v>
+        <v>38485</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>142864</v>
+        <v>29014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
-        <v>436</v>
+        <v>100</v>
       </c>
       <c r="N14" s="7">
-        <v>291532</v>
+        <v>67499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,102 +2043,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>279521</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>264949</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7">
-        <v>812</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>544471</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3266</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>696</v>
+        <v>2063</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>3963</v>
+        <v>2063</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,49 +2147,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2293</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>2977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,49 +2198,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>24314</v>
+        <v>13219</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H18" s="7">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>26332</v>
+        <v>12417</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="N18" s="7">
-        <v>50645</v>
+        <v>25636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,49 +2249,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>115341</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>106922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>222263</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,10 +2300,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="D20" s="7">
-        <v>38485</v>
+        <v>148667</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>81</v>
@@ -2315,10 +2315,10 @@
         <v>83</v>
       </c>
       <c r="H20" s="7">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="I20" s="7">
-        <v>29014</v>
+        <v>142864</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>84</v>
@@ -2330,10 +2330,10 @@
         <v>86</v>
       </c>
       <c r="M20" s="7">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="N20" s="7">
-        <v>67499</v>
+        <v>291532</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>87</v>
@@ -2351,49 +2351,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>279521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>264949</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>812</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>544471</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,49 +2404,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>16486</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2063</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="7">
-        <v>20</v>
-      </c>
-      <c r="I22" s="7">
-        <v>13113</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2063</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M22" s="7">
-        <v>45</v>
-      </c>
-      <c r="N22" s="7">
-        <v>29599</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2461,13 @@
         <v>2293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2476,13 +2476,13 @@
         <v>683</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2491,13 +2491,13 @@
         <v>2977</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,49 +2506,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>139655</v>
+        <v>16486</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7">
+        <v>13113</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>45</v>
+      </c>
+      <c r="N24" s="7">
+        <v>29599</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="7">
-        <v>198</v>
-      </c>
-      <c r="I24" s="7">
-        <v>133254</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M24" s="7">
-        <v>407</v>
-      </c>
-      <c r="N24" s="7">
-        <v>272909</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,46 +2557,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>139655</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="7">
+        <v>198</v>
+      </c>
+      <c r="I25" s="7">
+        <v>133254</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2063</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>407</v>
+      </c>
+      <c r="N25" s="7">
+        <v>272909</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2063</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>120</v>
@@ -2665,13 +2665,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7">
         <v>476</v>
@@ -2680,13 +2680,13 @@
         <v>320991</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M27" s="7">
         <v>995</v>
@@ -2695,13 +2695,13 @@
         <v>666578</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4EFFC6-2A7B-467E-9972-1C47393ED752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AF739E-66EC-4EBD-980F-8B09E0EF5D60}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3110,49 +3110,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>7911</v>
+        <v>744</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>744</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7268</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M10" s="7">
-        <v>22</v>
-      </c>
-      <c r="N10" s="7">
-        <v>15179</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,49 +3161,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2283</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>4803</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,49 +3212,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>101976</v>
+        <v>4296</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H12" s="7">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>93469</v>
+        <v>612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="M12" s="7">
-        <v>280</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>195445</v>
+        <v>4908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,49 +3263,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>1294</v>
+        <v>25288</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>656</v>
+        <v>27483</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="N13" s="7">
-        <v>1950</v>
+        <v>52772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,49 +3314,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>152633</v>
+        <v>35845</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="7">
+        <v>61</v>
+      </c>
+      <c r="I14" s="7">
+        <v>43178</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="7">
+        <v>111</v>
+      </c>
+      <c r="N14" s="7">
+        <v>79024</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" s="7">
-        <v>211</v>
-      </c>
-      <c r="I14" s="7">
-        <v>147000</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M14" s="7">
-        <v>437</v>
-      </c>
-      <c r="N14" s="7">
-        <v>299633</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,102 +3365,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>266334</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>100</v>
       </c>
       <c r="I15" s="7">
-        <v>250676</v>
+        <v>71274</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7">
-        <v>749</v>
+        <v>192</v>
       </c>
       <c r="N15" s="7">
-        <v>517010</v>
+        <v>137448</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>4296</v>
+        <v>1294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>612</v>
+        <v>656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>4908</v>
+        <v>1950</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,49 +3469,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2283</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>4803</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,49 +3520,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>25288</v>
+        <v>7911</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7268</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>22</v>
+      </c>
+      <c r="N18" s="7">
+        <v>15179</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H18" s="7">
-        <v>38</v>
-      </c>
-      <c r="I18" s="7">
-        <v>27483</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M18" s="7">
-        <v>73</v>
-      </c>
-      <c r="N18" s="7">
-        <v>52772</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,46 +3571,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="D19" s="7">
-        <v>744</v>
+        <v>101976</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="7">
+        <v>132</v>
+      </c>
+      <c r="I19" s="7">
+        <v>93469</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>280</v>
+      </c>
+      <c r="N19" s="7">
+        <v>195445</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>744</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>189</v>
@@ -3622,10 +3622,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="D20" s="7">
-        <v>35845</v>
+        <v>152633</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>190</v>
@@ -3637,10 +3637,10 @@
         <v>192</v>
       </c>
       <c r="H20" s="7">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="I20" s="7">
-        <v>43178</v>
+        <v>147000</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>193</v>
@@ -3652,10 +3652,10 @@
         <v>195</v>
       </c>
       <c r="M20" s="7">
-        <v>111</v>
+        <v>437</v>
       </c>
       <c r="N20" s="7">
-        <v>79024</v>
+        <v>299633</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>196</v>
@@ -3673,49 +3673,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>266334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="I21" s="7">
-        <v>71274</v>
+        <v>250676</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7">
-        <v>192</v>
+        <v>749</v>
       </c>
       <c r="N21" s="7">
-        <v>137448</v>
+        <v>517010</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,49 +3726,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>12207</v>
+        <v>2039</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H22" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>7880</v>
+        <v>656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="M22" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>20087</v>
+        <v>2695</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3783,13 @@
         <v>2520</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3798,13 +3798,13 @@
         <v>2283</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -3813,13 +3813,13 @@
         <v>4803</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,49 +3828,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>127265</v>
+        <v>12207</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" s="7">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7880</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>29</v>
+      </c>
+      <c r="N24" s="7">
+        <v>20087</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H24" s="7">
-        <v>170</v>
-      </c>
-      <c r="I24" s="7">
-        <v>120953</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M24" s="7">
-        <v>353</v>
-      </c>
-      <c r="N24" s="7">
-        <v>248217</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,46 +3879,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="D25" s="7">
-        <v>2039</v>
+        <v>127265</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" s="7">
+        <v>170</v>
+      </c>
+      <c r="I25" s="7">
+        <v>120953</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>353</v>
+      </c>
+      <c r="N25" s="7">
+        <v>248217</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>656</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2695</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="P25" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>225</v>
@@ -3987,13 +3987,13 @@
         <v>332508</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7">
         <v>457</v>
@@ -4002,13 +4002,13 @@
         <v>321950</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M27" s="7">
         <v>941</v>
@@ -4017,13 +4017,13 @@
         <v>654458</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4042,7 +4042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812D1A34-BB37-4B1D-8D15-55680E849F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67742D1-2548-4CCC-9324-7E35445EDD0B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4432,49 +4432,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>10508</v>
+        <v>653</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>653</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7">
-        <v>12211</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M10" s="7">
-        <v>32</v>
-      </c>
-      <c r="N10" s="7">
-        <v>22719</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,49 +4483,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,49 +4534,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>111169</v>
+        <v>1288</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4304</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5592</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H12" s="7">
-        <v>154</v>
-      </c>
-      <c r="I12" s="7">
-        <v>111245</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M12" s="7">
-        <v>307</v>
-      </c>
-      <c r="N12" s="7">
-        <v>222414</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,49 +4585,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>717</v>
+        <v>35131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>2128</v>
+        <v>35475</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M13" s="7">
+        <v>105</v>
+      </c>
+      <c r="N13" s="7">
+        <v>70606</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2845</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,49 +4636,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7">
-        <v>158517</v>
+        <v>42660</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H14" s="7">
+        <v>77</v>
+      </c>
+      <c r="I14" s="7">
+        <v>51734</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>138</v>
+      </c>
+      <c r="N14" s="7">
+        <v>94394</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="7">
-        <v>196</v>
-      </c>
-      <c r="I14" s="7">
-        <v>138683</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M14" s="7">
-        <v>408</v>
-      </c>
-      <c r="N14" s="7">
-        <v>297200</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,102 +4687,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7">
-        <v>281629</v>
+        <v>79732</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>265259</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7">
-        <v>753</v>
+        <v>253</v>
       </c>
       <c r="N15" s="7">
-        <v>546888</v>
+        <v>171245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1288</v>
+        <v>717</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2128</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2845</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4304</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M16" s="7">
-        <v>9</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5592</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,49 +4791,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,49 +4842,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>35131</v>
+        <v>10508</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="7">
+        <v>18</v>
+      </c>
+      <c r="I18" s="7">
+        <v>12211</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M18" s="7">
+        <v>32</v>
+      </c>
+      <c r="N18" s="7">
+        <v>22719</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H18" s="7">
-        <v>54</v>
-      </c>
-      <c r="I18" s="7">
-        <v>35475</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M18" s="7">
-        <v>105</v>
-      </c>
-      <c r="N18" s="7">
-        <v>70606</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,49 +4893,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="D19" s="7">
-        <v>653</v>
+        <v>111169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="7">
+        <v>154</v>
+      </c>
+      <c r="I19" s="7">
+        <v>111245</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="N19" s="7">
-        <v>653</v>
+        <v>222414</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,49 +4944,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="D20" s="7">
-        <v>42660</v>
+        <v>158517</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="I20" s="7">
-        <v>51734</v>
+        <v>138683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
-        <v>138</v>
+        <v>408</v>
       </c>
       <c r="N20" s="7">
-        <v>94394</v>
+        <v>297200</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,49 +4995,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>79732</v>
+        <v>281629</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>265259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7">
-        <v>253</v>
+        <v>753</v>
       </c>
       <c r="N21" s="7">
-        <v>171245</v>
+        <v>546888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,49 +5048,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>11796</v>
+        <v>1370</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2128</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H22" s="7">
-        <v>25</v>
-      </c>
-      <c r="I22" s="7">
-        <v>16515</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3498</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M22" s="7">
-        <v>41</v>
-      </c>
-      <c r="N22" s="7">
-        <v>28311</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5105,13 @@
         <v>717</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5120,13 +5120,13 @@
         <v>993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5135,13 +5135,13 @@
         <v>1710</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,49 +5150,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>146300</v>
+        <v>11796</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H24" s="7">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7">
+        <v>16515</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M24" s="7">
+        <v>41</v>
+      </c>
+      <c r="N24" s="7">
+        <v>28311</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="H24" s="7">
-        <v>208</v>
-      </c>
-      <c r="I24" s="7">
-        <v>146720</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M24" s="7">
-        <v>412</v>
-      </c>
-      <c r="N24" s="7">
-        <v>293020</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,46 +5201,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="D25" s="7">
-        <v>1370</v>
+        <v>146300</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>48</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="I25" s="7">
-        <v>2128</v>
+        <v>146720</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" s="7">
+        <v>412</v>
+      </c>
+      <c r="N25" s="7">
+        <v>293020</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="M25" s="7">
-        <v>5</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3498</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>314</v>
@@ -5276,7 +5276,7 @@
         <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>319</v>
@@ -5309,13 +5309,13 @@
         <v>361361</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7">
         <v>510</v>
@@ -5324,13 +5324,13 @@
         <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M27" s="7">
         <v>1006</v>
@@ -5339,13 +5339,13 @@
         <v>718133</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4A981D-F94D-4393-AF01-071A20E1103B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A69B202-8F0F-4C4C-8DDA-9ED2F37D5036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{76255716-61B4-4066-9E37-8CEF7CC57E02}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A3E96BF-9F28-4E87-8E7E-C9D826441EFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="343">
   <si>
     <t>Menores según frecuencia de sentirse alegre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -67,946 +67,1006 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,17%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2015 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1077,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1113,39 +1173,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1197,7 +1257,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1308,13 +1368,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1323,6 +1376,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1387,19 +1447,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293A9AAC-42CE-4D3D-B49D-26F99F594DD8}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E2EE53-74DA-4200-9BD2-05B53A8D291C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1790,47 +1870,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,47 +1915,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,49 +1958,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,49 +2003,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24314</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>77</v>
-      </c>
-      <c r="N13" s="7">
-        <v>50645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,49 +2048,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>58</v>
-      </c>
-      <c r="D14" s="7">
-        <v>38485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
-      </c>
-      <c r="I14" s="7">
-        <v>29014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>100</v>
-      </c>
-      <c r="N14" s="7">
-        <v>67499</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,102 +2093,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>73505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="I16" s="7">
-        <v>2063</v>
+        <v>69396</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="N16" s="7">
-        <v>2063</v>
+        <v>142900</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,49 +2191,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7">
-        <v>2293</v>
+        <v>62018</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I17" s="7">
-        <v>683</v>
+        <v>53406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="N17" s="7">
-        <v>2977</v>
+        <v>115424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,49 +2242,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>13219</v>
+        <v>5191</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>12417</v>
+        <v>3359</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>25636</v>
+        <v>8550</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,49 +2293,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>115341</v>
+        <v>802</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>106922</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>222263</v>
+        <v>802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,49 +2344,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>148667</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>142864</v>
+        <v>733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>436</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>291532</v>
+        <v>733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,102 +2395,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>279521</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="I21" s="7">
-        <v>264949</v>
+        <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>812</v>
+        <v>402</v>
       </c>
       <c r="N21" s="7">
-        <v>544471</v>
+        <v>268409</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>113648</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="I22" s="7">
-        <v>2063</v>
+        <v>102482</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="N22" s="7">
-        <v>2063</v>
+        <v>216131</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,49 +2499,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="D23" s="7">
-        <v>2293</v>
+        <v>77637</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I23" s="7">
-        <v>683</v>
+        <v>79848</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="N23" s="7">
-        <v>2977</v>
+        <v>157485</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,49 +2550,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>16486</v>
+        <v>11295</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>13113</v>
+        <v>9754</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N24" s="7">
-        <v>29599</v>
+        <v>21049</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,49 +2601,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>209</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>139655</v>
+        <v>1492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>133254</v>
+        <v>683</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="M25" s="7">
-        <v>407</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>272909</v>
+        <v>2175</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,49 +2652,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>187153</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>171878</v>
+        <v>1329</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="M26" s="7">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>359031</v>
+        <v>1329</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,55 +2703,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>286</v>
+      </c>
+      <c r="I27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>593</v>
+      </c>
+      <c r="N27" s="7">
+        <v>398169</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>282</v>
+      </c>
+      <c r="D28" s="7">
+        <v>187153</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="7">
+        <v>254</v>
+      </c>
+      <c r="I28" s="7">
+        <v>171878</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="7">
+        <v>536</v>
+      </c>
+      <c r="N28" s="7">
+        <v>359031</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>209</v>
+      </c>
+      <c r="D29" s="7">
+        <v>139655</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="7">
+        <v>198</v>
+      </c>
+      <c r="I29" s="7">
+        <v>133254</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="7">
+        <v>407</v>
+      </c>
+      <c r="N29" s="7">
+        <v>272909</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7">
+        <v>16486</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="7">
+        <v>20</v>
+      </c>
+      <c r="I30" s="7">
+        <v>13113</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" s="7">
+        <v>45</v>
+      </c>
+      <c r="N30" s="7">
+        <v>29599</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2293</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>683</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2977</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2063</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2063</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>476</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>320991</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>995</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>666578</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>48</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2720,8 +3078,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AF739E-66EC-4EBD-980F-8B09E0EF5D60}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7D8E0E-7D11-404A-A3E2-9372679E65B4}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2737,7 +3095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3110,49 +3468,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,47 +3515,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,49 +3558,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,49 +3603,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7">
-        <v>25288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
-      </c>
-      <c r="N13" s="7">
-        <v>52772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,49 +3648,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
-      </c>
-      <c r="D14" s="7">
-        <v>35845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>61</v>
-      </c>
-      <c r="I14" s="7">
-        <v>43178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>111</v>
-      </c>
-      <c r="N14" s="7">
-        <v>79024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,102 +3693,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>100</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>192</v>
-      </c>
-      <c r="N15" s="7">
-        <v>137448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D16" s="7">
-        <v>1294</v>
+        <v>86830</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="I16" s="7">
-        <v>656</v>
+        <v>98337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="N16" s="7">
-        <v>1950</v>
+        <v>185167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,49 +3791,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D17" s="7">
-        <v>2520</v>
+        <v>60868</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="I17" s="7">
-        <v>2283</v>
+        <v>52917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="N17" s="7">
-        <v>4803</v>
+        <v>113785</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,49 +3842,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>7911</v>
+        <v>6916</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>7268</v>
+        <v>2798</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="M18" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>15179</v>
+        <v>9713</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,49 +3893,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>101976</v>
+        <v>1316</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>93469</v>
+        <v>768</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>195445</v>
+        <v>2084</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,49 +3944,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>152633</v>
+        <v>744</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>147000</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
-        <v>437</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>299633</v>
+        <v>744</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,102 +3995,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>266334</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="I21" s="7">
-        <v>250676</v>
+        <v>154820</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>749</v>
+        <v>445</v>
       </c>
       <c r="N21" s="7">
-        <v>517010</v>
+        <v>311494</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>2039</v>
+        <v>101648</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="I22" s="7">
-        <v>656</v>
+        <v>91841</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="N22" s="7">
-        <v>2695</v>
+        <v>193489</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,49 +4099,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7">
-        <v>2520</v>
+        <v>66397</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="I23" s="7">
-        <v>2283</v>
+        <v>68036</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="N23" s="7">
-        <v>4803</v>
+        <v>134432</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,49 +4150,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>12207</v>
+        <v>5291</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H24" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>7880</v>
+        <v>5082</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="M24" s="7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>20087</v>
+        <v>10373</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,49 +4201,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>127265</v>
+        <v>1204</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H25" s="7">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>120953</v>
+        <v>1516</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="M25" s="7">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>248217</v>
+        <v>2719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,49 +4252,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>276</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>188478</v>
+        <v>1294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>190178</v>
+        <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
-        <v>548</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>378656</v>
+        <v>1950</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,55 +4303,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>259</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175834</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>237</v>
+      </c>
+      <c r="I27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>496</v>
+      </c>
+      <c r="N27" s="7">
+        <v>342964</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>276</v>
+      </c>
+      <c r="D28" s="7">
+        <v>188478</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H28" s="7">
+        <v>272</v>
+      </c>
+      <c r="I28" s="7">
+        <v>190178</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" s="7">
+        <v>548</v>
+      </c>
+      <c r="N28" s="7">
+        <v>378656</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>183</v>
+      </c>
+      <c r="D29" s="7">
+        <v>127265</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="7">
+        <v>170</v>
+      </c>
+      <c r="I29" s="7">
+        <v>120953</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" s="7">
+        <v>353</v>
+      </c>
+      <c r="N29" s="7">
+        <v>248217</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7">
+        <v>12207</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="7">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>7880</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" s="7">
+        <v>29</v>
+      </c>
+      <c r="N30" s="7">
+        <v>20087</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2520</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2283</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" s="7">
+        <v>7</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4803</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2039</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>656</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2695</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>332508</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>457</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321950</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>941</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>654458</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>48</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4042,8 +4678,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67742D1-2548-4CCC-9324-7E35445EDD0B}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35177B4-5DA4-4145-89BD-4D3B9CD07FE6}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4059,7 +4695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4432,49 +5068,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,47 +5115,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,49 +5158,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,49 +5203,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7">
-        <v>35131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7">
-        <v>35475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>105</v>
-      </c>
-      <c r="N13" s="7">
-        <v>70606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,49 +5248,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>61</v>
-      </c>
-      <c r="D14" s="7">
-        <v>42660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>77</v>
-      </c>
-      <c r="I14" s="7">
-        <v>51734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>138</v>
-      </c>
-      <c r="N14" s="7">
-        <v>94394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,102 +5293,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>115</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>253</v>
-      </c>
-      <c r="N15" s="7">
-        <v>171245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D16" s="7">
-        <v>717</v>
+        <v>110391</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="I16" s="7">
-        <v>2128</v>
+        <v>106241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="N16" s="7">
-        <v>2845</v>
+        <v>216632</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,49 +5391,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7">
-        <v>717</v>
+        <v>70000</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="7">
+        <v>105</v>
+      </c>
+      <c r="I17" s="7">
+        <v>73190</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M17" s="7">
+        <v>204</v>
+      </c>
+      <c r="N17" s="7">
+        <v>143190</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>993</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1710</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,49 +5442,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>10508</v>
+        <v>5552</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6552</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>18</v>
+      </c>
+      <c r="N18" s="7">
+        <v>12104</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H18" s="7">
-        <v>18</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12211</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M18" s="7">
-        <v>32</v>
-      </c>
-      <c r="N18" s="7">
-        <v>22719</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,49 +5493,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>111169</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>111245</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>222414</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>46</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,49 +5544,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>158517</v>
+        <v>1370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>138683</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
-        <v>408</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>297200</v>
+        <v>1370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,102 +5595,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>281629</v>
+        <v>187313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>265259</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>753</v>
+        <v>528</v>
       </c>
       <c r="N21" s="7">
-        <v>546888</v>
+        <v>373296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D22" s="7">
-        <v>1370</v>
+        <v>90787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>54</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="I22" s="7">
-        <v>2128</v>
+        <v>84175</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>242</v>
       </c>
       <c r="N22" s="7">
-        <v>3498</v>
+        <v>174962</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,49 +5699,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D23" s="7">
-        <v>717</v>
+        <v>76300</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="I23" s="7">
-        <v>993</v>
+        <v>73530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="N23" s="7">
-        <v>1710</v>
+        <v>149830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>52</v>
+        <v>291</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,49 +5750,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>11796</v>
+        <v>6244</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H24" s="7">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>9964</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>23</v>
+      </c>
+      <c r="N24" s="7">
+        <v>16207</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H24" s="7">
-        <v>25</v>
-      </c>
-      <c r="I24" s="7">
-        <v>16515</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="M24" s="7">
-        <v>41</v>
-      </c>
-      <c r="N24" s="7">
-        <v>28311</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,49 +5801,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>146300</v>
+        <v>717</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>307</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H25" s="7">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>146720</v>
+        <v>993</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M25" s="7">
-        <v>412</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>293020</v>
+        <v>1710</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>314</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,49 +5852,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>201178</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>315</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>316</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
-        <v>273</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>190417</v>
+        <v>2128</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
-        <v>546</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>391594</v>
+        <v>2128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,55 +5903,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>478</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344837</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>273</v>
+      </c>
+      <c r="D28" s="7">
+        <v>201178</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H28" s="7">
+        <v>273</v>
+      </c>
+      <c r="I28" s="7">
+        <v>190417</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M28" s="7">
+        <v>546</v>
+      </c>
+      <c r="N28" s="7">
+        <v>391594</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>204</v>
+      </c>
+      <c r="D29" s="7">
+        <v>146300</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H29" s="7">
+        <v>208</v>
+      </c>
+      <c r="I29" s="7">
+        <v>146720</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M29" s="7">
+        <v>412</v>
+      </c>
+      <c r="N29" s="7">
+        <v>293020</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>16</v>
+      </c>
+      <c r="D30" s="7">
+        <v>11796</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H30" s="7">
+        <v>25</v>
+      </c>
+      <c r="I30" s="7">
+        <v>16515</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M30" s="7">
+        <v>41</v>
+      </c>
+      <c r="N30" s="7">
+        <v>28311</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>717</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>993</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M31" s="7">
+        <v>2</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1710</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1370</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2128</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3498</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>496</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>361361</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>510</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356772</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>1006</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>718133</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>48</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A08-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A69B202-8F0F-4C4C-8DDA-9ED2F37D5036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD60C37-7FF1-467B-BFDD-F42115D4E93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A3E96BF-9F28-4E87-8E7E-C9D826441EFA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{963ADAC2-A319-4BFE-9808-C994ABD4C78E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="339">
   <si>
     <t>Menores según frecuencia de sentirse alegre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -97,976 +97,964 @@
     <t>51,94%</t>
   </si>
   <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
   </si>
   <si>
     <t>54,69%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
   </si>
   <si>
     <t>53,24%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>43,82%</t>
   </si>
   <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
+    <t>1,63%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>1,08%</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E2EE53-74DA-4200-9BD2-05B53A8D291C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D819EC7-532B-4428-920D-35D9545D3184}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2559,10 +2547,10 @@
         <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -2571,13 +2559,13 @@
         <v>9754</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2586,13 +2574,13 @@
         <v>21049</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2595,13 @@
         <v>1492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2622,13 +2610,13 @@
         <v>683</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2900,7 +2888,7 @@
         <v>122</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2903,13 @@
         <v>2293</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2930,13 +2918,13 @@
         <v>683</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2945,13 +2933,13 @@
         <v>2977</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,7 +2960,7 @@
         <v>48</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -2981,13 +2969,13 @@
         <v>2063</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2999,7 +2987,7 @@
         <v>133</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>134</v>
@@ -3078,7 +3066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7D8E0E-7D11-404A-A3E2-9372679E65B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F25D42-E652-463C-9868-42CA4BD26C38}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3899,13 +3887,13 @@
         <v>1316</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3914,13 +3902,13 @@
         <v>768</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3929,13 +3917,13 @@
         <v>2084</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3938,13 @@
         <v>744</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3971,7 +3959,7 @@
         <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3980,13 +3968,13 @@
         <v>744</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4042,13 @@
         <v>101648</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>131</v>
@@ -4069,13 +4057,13 @@
         <v>91841</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M22" s="7">
         <v>280</v>
@@ -4084,13 +4072,13 @@
         <v>193489</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4093,13 @@
         <v>66397</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H23" s="7">
         <v>96</v>
@@ -4120,13 +4108,13 @@
         <v>68036</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M23" s="7">
         <v>194</v>
@@ -4135,13 +4123,13 @@
         <v>134432</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4144,13 @@
         <v>5291</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -4171,13 +4159,13 @@
         <v>5082</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -4186,13 +4174,13 @@
         <v>10373</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,7 +4201,7 @@
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4222,13 +4210,13 @@
         <v>1516</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4237,13 +4225,13 @@
         <v>2719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4246,13 @@
         <v>1294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4273,13 +4261,13 @@
         <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4291,10 +4279,10 @@
         <v>45</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4350,13 @@
         <v>188478</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H28" s="7">
         <v>272</v>
@@ -4377,13 +4365,13 @@
         <v>190178</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M28" s="7">
         <v>548</v>
@@ -4392,13 +4380,13 @@
         <v>378656</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4401,13 @@
         <v>127265</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H29" s="7">
         <v>170</v>
@@ -4428,13 +4416,13 @@
         <v>120953</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M29" s="7">
         <v>353</v>
@@ -4443,13 +4431,13 @@
         <v>248217</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,10 +4455,10 @@
         <v>36</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4479,13 +4467,13 @@
         <v>7880</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4494,13 +4482,13 @@
         <v>20087</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4503,13 @@
         <v>2520</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -4530,13 +4518,13 @@
         <v>2283</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -4545,13 +4533,13 @@
         <v>4803</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4554,13 @@
         <v>2039</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4581,13 +4569,13 @@
         <v>656</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -4596,13 +4584,13 @@
         <v>2695</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,7 +4666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35177B4-5DA4-4145-89BD-4D3B9CD07FE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E598BC7-28A6-4184-A25F-15EA43C25534}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4695,7 +4683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5346,13 +5334,13 @@
         <v>110391</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>152</v>
@@ -5361,13 +5349,13 @@
         <v>106241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>304</v>
@@ -5376,13 +5364,13 @@
         <v>216632</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5385,13 @@
         <v>70000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -5412,13 +5400,13 @@
         <v>73190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>204</v>
@@ -5427,13 +5415,13 @@
         <v>143190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5436,13 @@
         <v>5552</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -5463,13 +5451,13 @@
         <v>6552</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -5478,13 +5466,13 @@
         <v>12104</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,7 +5493,7 @@
         <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5520,7 +5508,7 @@
         <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5535,7 +5523,7 @@
         <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5538,13 @@
         <v>1370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5571,7 +5559,7 @@
         <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5580,13 +5568,13 @@
         <v>1370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5642,13 @@
         <v>90787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -5669,13 +5657,13 @@
         <v>84175</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>242</v>
@@ -5684,13 +5672,13 @@
         <v>174962</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5693,13 @@
         <v>76300</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>103</v>
@@ -5720,13 +5708,13 @@
         <v>73530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>208</v>
@@ -5735,13 +5723,13 @@
         <v>149830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5744,13 @@
         <v>6244</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -5771,13 +5759,13 @@
         <v>9964</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -5786,13 +5774,13 @@
         <v>16207</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5795,13 @@
         <v>717</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5828,7 +5816,7 @@
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5837,13 +5825,13 @@
         <v>1710</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,7 +5852,7 @@
         <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5873,13 +5861,13 @@
         <v>2128</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5891,10 +5879,10 @@
         <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5950,13 @@
         <v>201178</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>273</v>
@@ -5977,13 +5965,13 @@
         <v>190417</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>546</v>
@@ -5992,13 +5980,13 @@
         <v>391594</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +6001,13 @@
         <v>146300</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>208</v>
@@ -6028,13 +6016,13 @@
         <v>146720</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>412</v>
@@ -6043,13 +6031,13 @@
         <v>293020</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6052,13 @@
         <v>11796</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -6079,13 +6067,13 @@
         <v>16515</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>331</v>
+        <v>161</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M30" s="7">
         <v>41</v>
@@ -6094,13 +6082,13 @@
         <v>28311</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6103,13 @@
         <v>717</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6130,13 +6118,13 @@
         <v>993</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -6145,13 +6133,13 @@
         <v>1710</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6154,13 @@
         <v>1370</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6181,13 +6169,13 @@
         <v>2128</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6196,13 +6184,13 @@
         <v>3498</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD60C37-7FF1-467B-BFDD-F42115D4E93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C5F48B7-BEBE-4668-8065-F20E2C55B70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{963ADAC2-A319-4BFE-9808-C994ABD4C78E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{994D0DBC-5046-4113-83B5-A6B0FCFC3C84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="340">
   <si>
     <t>Menores según frecuencia de sentirse alegre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,940 +94,940 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
     <t>51,94%</t>
   </si>
   <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
   </si>
   <si>
     <t>53,24%</t>
   </si>
   <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
   </si>
   <si>
     <t>43,82%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
   </si>
   <si>
     <t>43,0%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2016 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
   </si>
   <si>
     <t>52,16%</t>
   </si>
   <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
   </si>
   <si>
     <t>50,74%</t>
   </si>
   <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
   </si>
   <si>
     <t>43,84%</t>
   </si>
   <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
   </si>
   <si>
     <t>55,67%</t>
   </si>
   <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
   </si>
   <si>
     <t>54,53%</t>
   </si>
   <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>40,8%</t>
   </si>
   <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>6,63%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>5,24%</t>
@@ -1036,25 +1036,28 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,66%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,1%</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D819EC7-532B-4428-920D-35D9545D3184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D98221-B8AB-4D52-942F-417FD42E3787}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2128,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D16" s="7">
-        <v>73505</v>
+        <v>69396</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2143,10 +2146,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>69396</v>
+        <v>73505</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2179,10 +2182,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7">
-        <v>62018</v>
+        <v>53406</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2194,10 +2197,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I17" s="7">
-        <v>53406</v>
+        <v>62018</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2230,10 +2233,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>5191</v>
+        <v>3359</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2245,10 +2248,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>3359</v>
+        <v>5191</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2281,10 +2284,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2296,16 +2299,16 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>49</v>
@@ -2320,7 +2323,7 @@
         <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>51</v>
@@ -2332,28 +2335,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
@@ -2371,7 +2374,7 @@
         <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>56</v>
@@ -2383,25 +2386,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>190</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126894</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -2436,10 +2439,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D22" s="7">
-        <v>113648</v>
+        <v>102482</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>59</v>
@@ -2451,10 +2454,10 @@
         <v>61</v>
       </c>
       <c r="H22" s="7">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="I22" s="7">
-        <v>102482</v>
+        <v>113648</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>62</v>
@@ -2487,10 +2490,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" s="7">
-        <v>77637</v>
+        <v>79848</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>68</v>
@@ -2502,10 +2505,10 @@
         <v>70</v>
       </c>
       <c r="H23" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I23" s="7">
-        <v>79848</v>
+        <v>77637</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>71</v>
@@ -2538,34 +2541,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>11295</v>
+        <v>9754</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>9754</v>
+        <v>11295</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2574,10 +2577,10 @@
         <v>21049</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>84</v>
@@ -2589,31 +2592,31 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>1492</v>
+        <v>683</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>683</v>
+        <v>1492</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>87</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>88</v>
@@ -2640,28 +2643,28 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
@@ -2679,7 +2682,7 @@
         <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>96</v>
@@ -2691,25 +2694,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>286</v>
+      </c>
+      <c r="D27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>286</v>
-      </c>
-      <c r="I27" s="7">
-        <v>194097</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -2744,10 +2747,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D28" s="7">
-        <v>187153</v>
+        <v>171878</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>97</v>
@@ -2759,10 +2762,10 @@
         <v>99</v>
       </c>
       <c r="H28" s="7">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="I28" s="7">
-        <v>171878</v>
+        <v>187153</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>100</v>
@@ -2795,10 +2798,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D29" s="7">
-        <v>139655</v>
+        <v>133254</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>106</v>
@@ -2810,10 +2813,10 @@
         <v>108</v>
       </c>
       <c r="H29" s="7">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I29" s="7">
-        <v>133254</v>
+        <v>139655</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>109</v>
@@ -2846,10 +2849,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D30" s="7">
-        <v>16486</v>
+        <v>13113</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>115</v>
@@ -2861,19 +2864,19 @@
         <v>117</v>
       </c>
       <c r="H30" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I30" s="7">
-        <v>13113</v>
+        <v>16486</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>118</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>45</v>
@@ -2882,13 +2885,13 @@
         <v>29599</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,34 +2900,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>2293</v>
+        <v>683</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>683</v>
+        <v>2293</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2933,13 +2936,13 @@
         <v>2977</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,34 +2951,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>2063</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2063</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2984,13 +2987,13 @@
         <v>2063</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,25 +3002,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>476</v>
+      </c>
+      <c r="D33" s="7">
+        <v>320991</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>519</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>345587</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>476</v>
-      </c>
-      <c r="I33" s="7">
-        <v>320991</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -3046,7 +3049,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +3069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F25D42-E652-463C-9868-42CA4BD26C38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5172DED-FE04-4B69-8FE8-009459E8B0C3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3083,7 +3086,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3728,34 +3731,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>141</v>
+      </c>
+      <c r="D16" s="7">
+        <v>98337</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="7">
         <v>127</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>86830</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="J16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="7">
-        <v>98337</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -3764,13 +3767,13 @@
         <v>185167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,34 +3782,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>74</v>
+      </c>
+      <c r="D17" s="7">
+        <v>52917</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="7">
         <v>85</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>60868</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="7">
-        <v>74</v>
-      </c>
-      <c r="I17" s="7">
-        <v>52917</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -3815,13 +3818,13 @@
         <v>113785</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,25 +3833,25 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2798</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>6916</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2798</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>158</v>
@@ -3881,34 +3884,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>768</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1316</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>768</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3917,13 +3920,13 @@
         <v>2084</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3935,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
@@ -3947,19 +3950,19 @@
         <v>170</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3968,13 +3971,13 @@
         <v>744</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,25 +3986,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>220</v>
+      </c>
+      <c r="D21" s="7">
+        <v>154820</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>220</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154820</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -4036,34 +4039,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>131</v>
+      </c>
+      <c r="D22" s="7">
+        <v>91841</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="7">
         <v>149</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>101648</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="7">
-        <v>131</v>
-      </c>
-      <c r="I22" s="7">
-        <v>91841</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M22" s="7">
         <v>280</v>
@@ -4072,13 +4075,13 @@
         <v>193489</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,34 +4090,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>96</v>
+      </c>
+      <c r="D23" s="7">
+        <v>68036</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="7">
         <v>98</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>66397</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H23" s="7">
-        <v>96</v>
-      </c>
-      <c r="I23" s="7">
-        <v>68036</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M23" s="7">
         <v>194</v>
@@ -4123,13 +4126,13 @@
         <v>134432</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,34 +4141,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>7</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5082</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>5291</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5082</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -4174,13 +4177,13 @@
         <v>10373</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,31 +4195,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>1204</v>
+        <v>1516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>1516</v>
+        <v>1204</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4225,13 +4228,13 @@
         <v>2719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,34 +4243,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>656</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1294</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>656</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4276,13 +4279,13 @@
         <v>1950</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,25 +4294,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>237</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>259</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175834</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>237</v>
-      </c>
-      <c r="I27" s="7">
-        <v>167130</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -4344,34 +4347,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>272</v>
+      </c>
+      <c r="D28" s="7">
+        <v>190178</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H28" s="7">
         <v>276</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>188478</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H28" s="7">
-        <v>272</v>
-      </c>
-      <c r="I28" s="7">
-        <v>190178</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M28" s="7">
         <v>548</v>
@@ -4380,13 +4383,13 @@
         <v>378656</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,34 +4398,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>170</v>
+      </c>
+      <c r="D29" s="7">
+        <v>120953</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="7">
         <v>183</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>127265</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H29" s="7">
-        <v>170</v>
-      </c>
-      <c r="I29" s="7">
-        <v>120953</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M29" s="7">
         <v>353</v>
@@ -4431,13 +4434,13 @@
         <v>248217</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,34 +4449,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7880</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" s="7">
         <v>18</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>12207</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="7">
-        <v>11</v>
-      </c>
-      <c r="I30" s="7">
-        <v>7880</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4482,13 +4485,13 @@
         <v>20087</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,34 +4500,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2283</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="7">
         <v>4</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>2520</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2283</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -4533,13 +4536,13 @@
         <v>4803</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,34 +4551,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>2039</v>
+        <v>656</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>239</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>656</v>
+        <v>2039</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -4584,13 +4587,13 @@
         <v>2695</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,25 +4602,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>457</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321950</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>484</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>332508</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>457</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321950</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -4646,7 +4649,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E598BC7-28A6-4184-A25F-15EA43C25534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB72BB32-E31E-4630-B28F-36BC7E85D048}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4683,7 +4686,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5331,31 +5334,31 @@
         <v>152</v>
       </c>
       <c r="D16" s="7">
-        <v>110391</v>
+        <v>106241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>152</v>
       </c>
       <c r="I16" s="7">
-        <v>106241</v>
+        <v>110391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>304</v>
@@ -5364,13 +5367,13 @@
         <v>216632</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,34 +5382,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>105</v>
+      </c>
+      <c r="D17" s="7">
+        <v>73190</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H17" s="7">
         <v>99</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>70000</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" s="7">
-        <v>105</v>
-      </c>
-      <c r="I17" s="7">
-        <v>73190</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>204</v>
@@ -5415,13 +5418,13 @@
         <v>143190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,34 +5433,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6552</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5552</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6552</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -5466,13 +5469,13 @@
         <v>12104</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5502,13 +5505,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5517,13 +5520,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,34 +5535,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1370</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5568,13 +5571,13 @@
         <v>1370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,25 +5586,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>261</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>187313</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -5639,31 +5642,31 @@
         <v>121</v>
       </c>
       <c r="D22" s="7">
-        <v>90787</v>
+        <v>84175</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
       </c>
       <c r="I22" s="7">
-        <v>84175</v>
+        <v>90787</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>242</v>
@@ -5672,13 +5675,13 @@
         <v>174962</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,34 +5690,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>103</v>
+      </c>
+      <c r="D23" s="7">
+        <v>73530</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" s="7">
         <v>105</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>76300</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H23" s="7">
-        <v>103</v>
-      </c>
-      <c r="I23" s="7">
-        <v>73530</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>208</v>
@@ -5723,13 +5726,13 @@
         <v>149830</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,34 +5741,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9964</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>6244</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H24" s="7">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7">
-        <v>9964</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -5774,13 +5777,13 @@
         <v>16207</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,28 +5795,28 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>717</v>
+        <v>993</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>993</v>
+        <v>717</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>300</v>
@@ -5825,13 +5828,13 @@
         <v>1710</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,34 +5843,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>2128</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>302</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>2128</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5876,13 +5879,13 @@
         <v>2128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,25 +5894,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>235</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174048</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -5947,31 +5950,31 @@
         <v>273</v>
       </c>
       <c r="D28" s="7">
-        <v>201178</v>
+        <v>190417</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>273</v>
       </c>
       <c r="I28" s="7">
-        <v>190417</v>
+        <v>201178</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>546</v>
@@ -5980,13 +5983,13 @@
         <v>391594</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,34 +5998,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>208</v>
+      </c>
+      <c r="D29" s="7">
+        <v>146720</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H29" s="7">
         <v>204</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>146300</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H29" s="7">
-        <v>208</v>
-      </c>
-      <c r="I29" s="7">
-        <v>146720</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>412</v>
@@ -6031,13 +6034,13 @@
         <v>293020</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,31 +6049,31 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D30" s="7">
-        <v>11796</v>
+        <v>16515</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>325</v>
       </c>
       <c r="H30" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>16515</v>
+        <v>11796</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>327</v>
@@ -6100,31 +6103,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>717</v>
+        <v>993</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>124</v>
+        <v>331</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>993</v>
+        <v>717</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>331</v>
+        <v>126</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -6133,13 +6136,13 @@
         <v>1710</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>134</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,34 +6151,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2128</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1370</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2128</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6184,13 +6187,13 @@
         <v>3498</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,25 +6202,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>510</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356772</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>496</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>361361</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>510</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356772</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -6246,7 +6249,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
